--- a/ЛР №1/lab_1/Orlov/keyboard_2/data_exp_2/13_keys/13_keys.xlsx
+++ b/ЛР №1/lab_1/Orlov/keyboard_2/data_exp_2/13_keys/13_keys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\ЛР №1\lab_1\Orlov\keyboard_2\data_exp_2\13_keys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\данные\Петя\клавиатура 2\эксперимент 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09524FE8-9D4C-43AC-9B6E-142C50373FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD35C1E0-DC2F-4EA0-9263-A51CC43FBF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="3"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="16200" windowHeight="9970"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
@@ -5511,7 +5511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5771,10 +5771,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="17">
-        <v>5.6300000000000003E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="C3" s="17">
-        <v>0.35189999999999999</v>
+        <v>0.34570000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5782,10 +5782,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="17">
-        <v>5.3499999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C4" s="17">
-        <v>0.35449999999999998</v>
+        <v>0.34720000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7771,9 +7771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
